--- a/pred_ohlcv/54_21/2019-10-27 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5236.883600000001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-5439.825200000001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6469.231900000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5054.608700000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5093.408700000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4920.9575</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5597.762700000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5595.188100000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5595.188100000001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5245.136000000001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5245.136000000001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5241.821600000001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5241.821600000001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4462.426700000001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2779.742800000001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4190.458063194444</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5743.055263194444</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5796.886763194444</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6066.485463194444</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>21401.20414541241</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>21412.25834541241</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18310.23404541241</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-894.2197999999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-461.2701999999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>771.9133000000003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6083.806300000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-5821.089600000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-5184.844900000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-5186.883600000001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5236.883600000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-5188.921100000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-5439.825200000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6469.231900000001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6412.630300000001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4735.7411</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5102.555700000001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2779.742800000001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-928.783200000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4190.458063194444</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5743.055263194444</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5796.886763194444</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6066.485463194444</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>17659.82814541242</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>17209.94184541242</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>18088.68484541242</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>17880.10434541242</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>17607.89244541242</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>18049.82054541242</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>18250.78544541242</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>18720.64364541242</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>18744.60654541242</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>18738.60654541242</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>18914.08044541242</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>20529.78244541241</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>21401.20414541241</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>21412.25834541241</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18310.23404541241</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
